--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.68463133333333</v>
+        <v>13.391867</v>
       </c>
       <c r="H2">
-        <v>35.053894</v>
+        <v>40.175601</v>
       </c>
       <c r="I2">
-        <v>0.165007383601423</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="J2">
-        <v>0.1650073836014231</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N2">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q2">
-        <v>150.0344755098147</v>
+        <v>271.7918869018093</v>
       </c>
       <c r="R2">
-        <v>1350.310279588332</v>
+        <v>2446.126982116284</v>
       </c>
       <c r="S2">
-        <v>0.05598912874760735</v>
+        <v>0.06362322258918419</v>
       </c>
       <c r="T2">
-        <v>0.05598912874760736</v>
+        <v>0.06362322258918418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.68463133333333</v>
+        <v>13.391867</v>
       </c>
       <c r="H3">
-        <v>35.053894</v>
+        <v>40.175601</v>
       </c>
       <c r="I3">
-        <v>0.165007383601423</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="J3">
-        <v>0.1650073836014231</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q3">
-        <v>114.9092740996645</v>
+        <v>131.6986109282967</v>
       </c>
       <c r="R3">
-        <v>1034.18346689698</v>
+        <v>1185.28749835467</v>
       </c>
       <c r="S3">
-        <v>0.0428812785861297</v>
+        <v>0.03082906606702544</v>
       </c>
       <c r="T3">
-        <v>0.0428812785861297</v>
+        <v>0.03082906606702543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.68463133333333</v>
+        <v>13.391867</v>
       </c>
       <c r="H4">
-        <v>35.053894</v>
+        <v>40.175601</v>
       </c>
       <c r="I4">
-        <v>0.165007383601423</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="J4">
-        <v>0.1650073836014231</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N4">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q4">
-        <v>76.10578969455202</v>
+        <v>158.2296136142726</v>
       </c>
       <c r="R4">
-        <v>684.9521072509681</v>
+        <v>1424.066522528454</v>
       </c>
       <c r="S4">
-        <v>0.02840078484073387</v>
+        <v>0.03703965575255905</v>
       </c>
       <c r="T4">
-        <v>0.02840078484073388</v>
+        <v>0.03703965575255904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.68463133333333</v>
+        <v>13.391867</v>
       </c>
       <c r="H5">
-        <v>35.053894</v>
+        <v>40.175601</v>
       </c>
       <c r="I5">
-        <v>0.165007383601423</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="J5">
-        <v>0.1650073836014231</v>
+        <v>0.1577826877470924</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N5">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q5">
-        <v>101.1219466193725</v>
+        <v>112.311361310845</v>
       </c>
       <c r="R5">
-        <v>910.097519574352</v>
+        <v>1010.802251797605</v>
       </c>
       <c r="S5">
-        <v>0.0377361914269521</v>
+        <v>0.02629074333832374</v>
       </c>
       <c r="T5">
-        <v>0.0377361914269521</v>
+        <v>0.02629074333832373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>47.470304</v>
       </c>
       <c r="I6">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="J6">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N6">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q6">
-        <v>203.1780595597013</v>
+        <v>321.1412691987484</v>
       </c>
       <c r="R6">
-        <v>1828.602536037312</v>
+        <v>2890.271422788736</v>
       </c>
       <c r="S6">
-        <v>0.07582099045384402</v>
+        <v>0.07517532140386003</v>
       </c>
       <c r="T6">
-        <v>0.07582099045384404</v>
+        <v>0.07517532140386003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>47.470304</v>
       </c>
       <c r="I7">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="J7">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P7">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q7">
         <v>155.6111904124089</v>
@@ -883,10 +883,10 @@
         <v>1400.50071371168</v>
       </c>
       <c r="S7">
-        <v>0.05807021982756801</v>
+        <v>0.036426714269633</v>
       </c>
       <c r="T7">
-        <v>0.05807021982756801</v>
+        <v>0.036426714269633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>47.470304</v>
       </c>
       <c r="I8">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="J8">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N8">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q8">
-        <v>103.063156776832</v>
+        <v>186.9594398867129</v>
       </c>
       <c r="R8">
-        <v>927.5684109914881</v>
+        <v>1682.634958980416</v>
       </c>
       <c r="S8">
-        <v>0.03846060270018014</v>
+        <v>0.04376496368104926</v>
       </c>
       <c r="T8">
-        <v>0.03846060270018015</v>
+        <v>0.04376496368104926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>47.470304</v>
       </c>
       <c r="I9">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="J9">
-        <v>0.2234545087003506</v>
+        <v>0.1864313654770604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N9">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O9">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P9">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q9">
-        <v>136.9402653837369</v>
+        <v>132.7037886522133</v>
       </c>
       <c r="R9">
-        <v>1232.462388453632</v>
+        <v>1194.33409786992</v>
       </c>
       <c r="S9">
-        <v>0.05110269571875838</v>
+        <v>0.03106436612251805</v>
       </c>
       <c r="T9">
-        <v>0.05110269571875837</v>
+        <v>0.03106436612251805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.939221333333333</v>
+        <v>7.803333333333334</v>
       </c>
       <c r="H10">
-        <v>20.817664</v>
+        <v>23.41</v>
       </c>
       <c r="I10">
-        <v>0.09799391386684557</v>
+        <v>0.09193870479148361</v>
       </c>
       <c r="J10">
-        <v>0.09799391386684558</v>
+        <v>0.0919387047914836</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N10">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q10">
-        <v>89.10186410615466</v>
+        <v>158.3709493822222</v>
       </c>
       <c r="R10">
-        <v>801.916776955392</v>
+        <v>1425.33854444</v>
       </c>
       <c r="S10">
-        <v>0.03325059606560203</v>
+        <v>0.0370727407615583</v>
       </c>
       <c r="T10">
-        <v>0.03325059606560204</v>
+        <v>0.03707274076155829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.939221333333333</v>
+        <v>7.803333333333334</v>
       </c>
       <c r="H11">
-        <v>20.817664</v>
+        <v>23.41</v>
       </c>
       <c r="I11">
-        <v>0.09799391386684557</v>
+        <v>0.09193870479148361</v>
       </c>
       <c r="J11">
-        <v>0.09799391386684558</v>
+        <v>0.0919387047914836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P11">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q11">
-        <v>68.24185235143112</v>
+        <v>76.73972274444445</v>
       </c>
       <c r="R11">
-        <v>614.1766711628801</v>
+        <v>690.6575047</v>
       </c>
       <c r="S11">
-        <v>0.02546615932302538</v>
+        <v>0.01796384916877947</v>
       </c>
       <c r="T11">
-        <v>0.02546615932302538</v>
+        <v>0.01796384916877947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.939221333333333</v>
+        <v>7.803333333333334</v>
       </c>
       <c r="H12">
-        <v>20.817664</v>
+        <v>23.41</v>
       </c>
       <c r="I12">
-        <v>0.09799391386684557</v>
+        <v>0.09193870479148361</v>
       </c>
       <c r="J12">
-        <v>0.09799391386684558</v>
+        <v>0.0919387047914836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N12">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q12">
-        <v>45.19739685171201</v>
+        <v>92.19912490444445</v>
       </c>
       <c r="R12">
-        <v>406.7765716654081</v>
+        <v>829.7921241399999</v>
       </c>
       <c r="S12">
-        <v>0.01686654259155035</v>
+        <v>0.02158270989318635</v>
       </c>
       <c r="T12">
-        <v>0.01686654259155035</v>
+        <v>0.02158270989318634</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.939221333333333</v>
+        <v>7.803333333333334</v>
       </c>
       <c r="H13">
-        <v>20.817664</v>
+        <v>23.41</v>
       </c>
       <c r="I13">
-        <v>0.09799391386684557</v>
+        <v>0.09193870479148361</v>
       </c>
       <c r="J13">
-        <v>0.09799391386684558</v>
+        <v>0.0919387047914836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N13">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O13">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P13">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q13">
-        <v>60.05389038227911</v>
+        <v>65.44292811666668</v>
       </c>
       <c r="R13">
-        <v>540.485013440512</v>
+        <v>588.9863530499999</v>
       </c>
       <c r="S13">
-        <v>0.02241061588666781</v>
+        <v>0.0153194049679595</v>
       </c>
       <c r="T13">
-        <v>0.02241061588666781</v>
+        <v>0.0153194049679595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.36549133333333</v>
+        <v>47.856754</v>
       </c>
       <c r="H14">
-        <v>109.096474</v>
+        <v>143.570262</v>
       </c>
       <c r="I14">
-        <v>0.5135441938313807</v>
+        <v>0.5638472419843638</v>
       </c>
       <c r="J14">
-        <v>0.5135441938313808</v>
+        <v>0.5638472419843636</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N14">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q14">
-        <v>466.9447638701746</v>
+        <v>971.2669242201786</v>
       </c>
       <c r="R14">
-        <v>4202.502874831572</v>
+        <v>8741.402317981609</v>
       </c>
       <c r="S14">
-        <v>0.1742521538033976</v>
+        <v>0.2273619437930373</v>
       </c>
       <c r="T14">
-        <v>0.1742521538033977</v>
+        <v>0.2273619437930373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.36549133333333</v>
+        <v>47.856754</v>
       </c>
       <c r="H15">
-        <v>109.096474</v>
+        <v>143.570262</v>
       </c>
       <c r="I15">
-        <v>0.5135441938313807</v>
+        <v>0.5638472419843638</v>
       </c>
       <c r="J15">
-        <v>0.5135441938313808</v>
+        <v>0.5638472419843636</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P15">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q15">
-        <v>357.6263633983978</v>
+        <v>470.6340068443933</v>
       </c>
       <c r="R15">
-        <v>3218.63727058558</v>
+        <v>4235.70606159954</v>
       </c>
       <c r="S15">
-        <v>0.1334572499807997</v>
+        <v>0.1101697792264054</v>
       </c>
       <c r="T15">
-        <v>0.1334572499807997</v>
+        <v>0.1101697792264054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.36549133333333</v>
+        <v>47.856754</v>
       </c>
       <c r="H16">
-        <v>109.096474</v>
+        <v>143.570262</v>
       </c>
       <c r="I16">
-        <v>0.5135441938313807</v>
+        <v>0.5638472419843638</v>
       </c>
       <c r="J16">
-        <v>0.5135441938313808</v>
+        <v>0.5638472419843636</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N16">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q16">
-        <v>236.860227473192</v>
+        <v>565.4443621829053</v>
       </c>
       <c r="R16">
-        <v>2131.742047258728</v>
+        <v>5088.999259646147</v>
       </c>
       <c r="S16">
-        <v>0.08839033646181269</v>
+        <v>0.1323637468618007</v>
       </c>
       <c r="T16">
-        <v>0.0883903364618127</v>
+        <v>0.1323637468618007</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.36549133333333</v>
+        <v>47.856754</v>
       </c>
       <c r="H17">
-        <v>109.096474</v>
+        <v>143.570262</v>
       </c>
       <c r="I17">
-        <v>0.5135441938313807</v>
+        <v>0.5638472419843638</v>
       </c>
       <c r="J17">
-        <v>0.5135441938313808</v>
+        <v>0.5638472419843636</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N17">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O17">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P17">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q17">
-        <v>314.7167564376658</v>
+        <v>401.35234240739</v>
       </c>
       <c r="R17">
-        <v>2832.450807938992</v>
+        <v>3612.17108166651</v>
       </c>
       <c r="S17">
-        <v>0.1174444535853706</v>
+        <v>0.09395177210312033</v>
       </c>
       <c r="T17">
-        <v>0.1174444535853706</v>
+        <v>0.09395177210312029</v>
       </c>
     </row>
   </sheetData>
